--- a/src/main/resources/excel/name_list_spec.xlsx
+++ b/src/main/resources/excel/name_list_spec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B8BF00-6496-4944-9B7B-792CCFB10214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CED94E-64D1-44C3-846D-9E6E7B3B8F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1590" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>工號</t>
   </si>
@@ -72,6 +72,174 @@
   </si>
   <si>
     <t>J0000007</t>
+  </si>
+  <si>
+    <t>J0000008</t>
+  </si>
+  <si>
+    <t>J0000009</t>
+  </si>
+  <si>
+    <t>J0000010</t>
+  </si>
+  <si>
+    <t>J0000011</t>
+  </si>
+  <si>
+    <t>J0000012</t>
+  </si>
+  <si>
+    <t>J0000013</t>
+  </si>
+  <si>
+    <t>J0000014</t>
+  </si>
+  <si>
+    <t>J0000015</t>
+  </si>
+  <si>
+    <t>J0000016</t>
+  </si>
+  <si>
+    <t>J0000017</t>
+  </si>
+  <si>
+    <t>J0000018</t>
+  </si>
+  <si>
+    <t>J0000019</t>
+  </si>
+  <si>
+    <t>J0000020</t>
+  </si>
+  <si>
+    <t>J0000021</t>
+  </si>
+  <si>
+    <t>J0000022</t>
+  </si>
+  <si>
+    <t>J0000023</t>
+  </si>
+  <si>
+    <t>J0000024</t>
+  </si>
+  <si>
+    <t>J0000025</t>
+  </si>
+  <si>
+    <t>J0000026</t>
+  </si>
+  <si>
+    <t>J0000027</t>
+  </si>
+  <si>
+    <t>J0000028</t>
+  </si>
+  <si>
+    <t>J0000029</t>
+  </si>
+  <si>
+    <t>J0000030</t>
+  </si>
+  <si>
+    <t>J0000031</t>
+  </si>
+  <si>
+    <t>J0000032</t>
+  </si>
+  <si>
+    <t>J0000033</t>
+  </si>
+  <si>
+    <t>J0000034</t>
+  </si>
+  <si>
+    <t>J0000035</t>
+  </si>
+  <si>
+    <t>员工8</t>
+  </si>
+  <si>
+    <t>员工9</t>
+  </si>
+  <si>
+    <t>员工10</t>
+  </si>
+  <si>
+    <t>员工11</t>
+  </si>
+  <si>
+    <t>员工12</t>
+  </si>
+  <si>
+    <t>员工13</t>
+  </si>
+  <si>
+    <t>员工14</t>
+  </si>
+  <si>
+    <t>员工15</t>
+  </si>
+  <si>
+    <t>员工16</t>
+  </si>
+  <si>
+    <t>员工17</t>
+  </si>
+  <si>
+    <t>员工18</t>
+  </si>
+  <si>
+    <t>员工19</t>
+  </si>
+  <si>
+    <t>员工20</t>
+  </si>
+  <si>
+    <t>员工21</t>
+  </si>
+  <si>
+    <t>员工22</t>
+  </si>
+  <si>
+    <t>员工23</t>
+  </si>
+  <si>
+    <t>员工24</t>
+  </si>
+  <si>
+    <t>员工25</t>
+  </si>
+  <si>
+    <t>员工26</t>
+  </si>
+  <si>
+    <t>员工27</t>
+  </si>
+  <si>
+    <t>员工28</t>
+  </si>
+  <si>
+    <t>员工29</t>
+  </si>
+  <si>
+    <t>员工30</t>
+  </si>
+  <si>
+    <t>员工31</t>
+  </si>
+  <si>
+    <t>员工32</t>
+  </si>
+  <si>
+    <t>员工33</t>
+  </si>
+  <si>
+    <t>员工34</t>
+  </si>
+  <si>
+    <t>员工35</t>
   </si>
 </sst>
 </file>
@@ -452,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7302BF71-8F06-4DCE-96CD-305292F00AED}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,6 +692,230 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
